--- a/ResultsByUHF20220105/DailyProjections_citywide20220105.xlsx
+++ b/ResultsByUHF20220105/DailyProjections_citywide20220105.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>143015 (116018, 172897)</t>
+          <t>160889 (130165, 194615)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>44136 (37465, 51642)</t>
+          <t>43893 (37639, 50840)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>682 (448, 945)</t>
+          <t>766 (506, 1064)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>597 (364, 857)</t>
+          <t>672 (413, 965)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82 (51, 117)</t>
+          <t>91 (56, 129)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>64 (40, 94)</t>
+          <t>71 (44, 103)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>38 (32, 45)</t>
+          <t>41 (34, 49)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>365 (204, 578)</t>
+          <t>414 (233, 655)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>317 (156, 530)</t>
+          <t>364 (184, 602)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>40 (18, 72)</t>
+          <t>42 (18, 77)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>37 (20, 58)</t>
+          <t>39 (21, 63)</t>
         </is>
       </c>
     </row>
@@ -535,57 +535,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>157239 (127968, 189239)</t>
+          <t>175848 (143774, 210599)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46164 (38795, 54420)</t>
+          <t>45759 (38806, 53501)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>736 (483, 1025)</t>
+          <t>824 (543, 1152)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>644 (393, 930)</t>
+          <t>722 (443, 1044)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>89 (55, 127)</t>
+          <t>99 (61, 141)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>70 (43, 101)</t>
+          <t>78 (48, 112)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>44 (37, 52)</t>
+          <t>47 (40, 56)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>391 (221, 618)</t>
+          <t>448 (256, 702)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>338 (168, 565)</t>
+          <t>392 (200, 643)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>45 (21, 80)</t>
+          <t>48 (22, 86)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>41 (23, 64)</t>
+          <t>44 (25, 70)</t>
         </is>
       </c>
     </row>
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>165822 (135117, 198809)</t>
+          <t>182890 (150167, 217794)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>48619 (40470, 57670)</t>
+          <t>47823 (40178, 56404)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>802 (526, 1123)</t>
+          <t>893 (587, 1257)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>704 (429, 1020)</t>
+          <t>782 (479, 1140)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96 (59, 136)</t>
+          <t>107 (66, 152)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>75 (46, 109)</t>
+          <t>84 (52, 121)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>48 (41, 58)</t>
+          <t>53 (45, 63)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>418 (239, 661)</t>
+          <t>482 (279, 752)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>360 (181, 603)</t>
+          <t>419 (216, 686)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>50 (24, 88)</t>
+          <t>54 (25, 96)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>45 (26, 70)</t>
+          <t>49 (28, 77)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>170513 (139366, 203420)</t>
+          <t>184793 (152276, 218896)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>51400 (42461, 61317)</t>
+          <t>50071 (41722, 59480)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>880 (576, 1239)</t>
+          <t>973 (638, 1380)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>774 (472, 1128)</t>
+          <t>854 (522, 1253)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>102 (63, 146)</t>
+          <t>116 (71, 164)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>80 (50, 117)</t>
+          <t>91 (56, 131)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>54 (45, 64)</t>
+          <t>59 (50, 70)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>450 (258, 710)</t>
+          <t>516 (302, 805)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>386 (194, 645)</t>
+          <t>448 (232, 732)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>56 (27, 95)</t>
+          <t>61 (29, 105)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>49 (28, 76)</t>
+          <t>54 (31, 84)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>171938 (141237, 203883)</t>
+          <t>182751 (151271, 215335)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>54251 (44530, 65062)</t>
+          <t>52286 (43256, 62443)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>969 (633, 1370)</t>
+          <t>1062 (694, 1517)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>855 (521, 1251)</t>
+          <t>934 (570, 1381)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>110 (68, 157)</t>
+          <t>124 (77, 177)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>86 (53, 125)</t>
+          <t>97 (60, 141)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>60 (50, 71)</t>
+          <t>66 (56, 79)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>484 (279, 764)</t>
+          <t>554 (326, 862)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>415 (210, 693)</t>
+          <t>478 (249, 782)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>61 (30, 103)</t>
+          <t>68 (33, 115)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>53 (31, 82)</t>
+          <t>60 (34, 92)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>170432 (140938, 200877)</t>
+          <t>177548 (147671, 208190)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>56844 (46411, 68463)</t>
+          <t>54173 (44541, 64980)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1065 (694, 1513)</t>
+          <t>1159 (755, 1664)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>943 (575, 1384)</t>
+          <t>1021 (621, 1517)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>118 (73, 169)</t>
+          <t>133 (82, 190)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>92 (57, 135)</t>
+          <t>104 (65, 152)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>66 (56, 79)</t>
+          <t>73 (61, 88)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>522 (303, 824)</t>
+          <t>594 (351, 924)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>447 (227, 747)</t>
+          <t>511 (268, 836)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>67 (33, 112)</t>
+          <t>74 (37, 125)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>57 (33, 87)</t>
+          <t>65 (38, 99)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>166296 (138417, 194910)</t>
+          <t>169834 (141876, 198276)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>58835 (47838, 71139)</t>
+          <t>55444 (45361, 66732)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1162 (756, 1656)</t>
+          <t>1254 (815, 1808)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1030 (627, 1516)</t>
+          <t>1106 (671, 1650)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>127 (78, 183)</t>
+          <t>143 (88, 205)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>99 (61, 146)</t>
+          <t>112 (69, 163)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>73 (61, 88)</t>
+          <t>81 (68, 98)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>565 (328, 890)</t>
+          <t>637 (378, 992)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>483 (246, 807)</t>
+          <t>546 (288, 896)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>72 (37, 120)</t>
+          <t>81 (41, 135)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>61 (36, 94)</t>
+          <t>70 (41, 107)</t>
         </is>
       </c>
     </row>
@@ -997,57 +997,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>158149 (132340, 184574)</t>
+          <t>158363 (132664, 184270)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>60001 (48624, 72790)</t>
+          <t>55894 (45531, 67486)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1253 (814, 1790)</t>
+          <t>1343 (869, 1941)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1110 (676, 1638)</t>
+          <t>1183 (715, 1770)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>136 (84, 197)</t>
+          <t>153 (94, 220)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>107 (66, 157)</t>
+          <t>120 (74, 175)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>81 (68, 99)</t>
+          <t>90 (74, 110)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>611 (356, 964)</t>
+          <t>682 (406, 1064)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>522 (268, 874)</t>
+          <t>584 (308, 960)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>78 (40, 129)</t>
+          <t>88 (45, 146)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>65 (38, 100)</t>
+          <t>75 (44, 114)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>147832 (124097, 172021)</t>
+          <t>145100 (121771, 168464)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60156 (48609, 73192)</t>
+          <t>55373 (44927, 67041)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1334 (865, 1907)</t>
+          <t>1418 (915, 2052)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1180 (716, 1743)</t>
+          <t>1248 (751, 1868)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>147 (90, 213)</t>
+          <t>163 (100, 236)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>115 (71, 170)</t>
+          <t>128 (79, 188)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90 (75, 111)</t>
+          <t>100 (82, 123)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>660 (386, 1042)</t>
+          <t>729 (434, 1141)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>565 (290, 945)</t>
+          <t>623 (329, 1029)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>84 (44, 139)</t>
+          <t>96 (50, 157)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>69 (41, 107)</t>
+          <t>81 (47, 122)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>137538 (115617, 159823)</t>
+          <t>132349 (111059, 153509)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>59242 (47729, 72271)</t>
+          <t>53859 (43538, 65421)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1399 (906, 2000)</t>
+          <t>1476 (950, 2134)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1233 (746, 1824)</t>
+          <t>1294 (775, 1938)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>157 (96, 229)</t>
+          <t>173 (106, 252)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>123 (76, 182)</t>
+          <t>136 (84, 200)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>102 (83, 126)</t>
+          <t>112 (91, 140)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>711 (417, 1126)</t>
+          <t>778 (463, 1223)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>609 (314, 1020)</t>
+          <t>663 (350, 1101)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>91 (48, 149)</t>
+          <t>103 (54, 168)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>74 (44, 114)</t>
+          <t>86 (51, 130)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>127139 (106822, 147718)</t>
+          <t>119915 (100462, 139148)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>57368 (46085, 70180)</t>
+          <t>51505 (41470, 62736)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1444 (935, 2063)</t>
+          <t>1512 (972, 2183)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1268 (764, 1876)</t>
+          <t>1319 (786, 1975)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>168 (103, 245)</t>
+          <t>184 (112, 267)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>132 (81, 195)</t>
+          <t>144 (88, 212)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>114 (92, 142)</t>
+          <t>125 (100, 158)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>766 (449, 1212)</t>
+          <t>827 (491, 1307)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>655 (339, 1099)</t>
+          <t>705 (371, 1176)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>98 (52, 161)</t>
+          <t>111 (59, 180)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>79 (47, 122)</t>
+          <t>91 (54, 138)</t>
         </is>
       </c>
     </row>
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>116757 (97949, 135806)</t>
+          <t>107955 (90238, 125577)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>54747 (43828, 67159)</t>
+          <t>48526 (38901, 59296)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1470 (950, 2097)</t>
+          <t>1527 (980, 2199)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1281 (769, 1898)</t>
+          <t>1324 (783, 1980)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>178 (109, 260)</t>
+          <t>193 (118, 282)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>140 (85, 206)</t>
+          <t>152 (93, 224)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>127 (102, 159)</t>
+          <t>139 (110, 177)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>821 (482, 1301)</t>
+          <t>878 (520, 1392)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>703 (364, 1178)</t>
+          <t>746 (391, 1252)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>105 (56, 173)</t>
+          <t>118 (64, 192)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>84 (50, 130)</t>
+          <t>97 (57, 146)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>106588 (89152, 124260)</t>
+          <t>96583 (80441, 112861)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>51606 (41164, 63507)</t>
+          <t>45149 (36020, 55375)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1473 (951, 2097)</t>
+          <t>1517 (974, 2177)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1274 (761, 1888)</t>
+          <t>1305 (768, 1950)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>187 (114, 273)</t>
+          <t>201 (123, 294)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>147 (90, 217)</t>
+          <t>158 (96, 233)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>141 (112, 177)</t>
+          <t>154 (121, 196)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>877 (515, 1387)</t>
+          <t>928 (547, 1476)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>750 (388, 1255)</t>
+          <t>786 (409, 1327)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>113 (61, 185)</t>
+          <t>126 (68, 205)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>90 (54, 139)</t>
+          <t>102 (61, 155)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>96752 (80594, 113217)</t>
+          <t>85984 (71221, 101064)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>48150 (38244, 59461)</t>
+          <t>41572 (32990, 51222)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1455 (940, 2066)</t>
+          <t>1486 (953, 2122)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1248 (741, 1850)</t>
+          <t>1265 (741, 1890)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>196 (119, 286)</t>
+          <t>208 (127, 305)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>154 (94, 227)</t>
+          <t>163 (100, 241)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>154 (123, 195)</t>
+          <t>168 (131, 215)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>932 (548, 1469)</t>
+          <t>976 (574, 1556)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>796 (412, 1327)</t>
+          <t>826 (426, 1397)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>121 (65, 198)</t>
+          <t>134 (73, 218)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>96 (57, 148)</t>
+          <t>108 (64, 164)</t>
         </is>
       </c>
     </row>
@@ -1536,57 +1536,57 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>118534 (92279, 148744)</t>
+          <t>135122 (105880, 168309)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>42238 (35768, 49670)</t>
+          <t>39632 (33643, 46457)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>564 (376, 780)</t>
+          <t>614 (408, 845)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>500 (312, 714)</t>
+          <t>544 (340, 773)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>63 (39, 89)</t>
+          <t>68 (42, 96)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>49 (31, 71)</t>
+          <t>53 (33, 76)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>28 (24, 33)</t>
+          <t>30 (26, 35)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>282 (156, 451)</t>
+          <t>302 (166, 485)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>248 (121, 416)</t>
+          <t>266 (128, 447)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>29 (13, 53)</t>
+          <t>31 (14, 56)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>26 (14, 42)</t>
+          <t>28 (15, 45)</t>
         </is>
       </c>
     </row>
@@ -1613,57 +1613,57 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>133451 (104706, 166464)</t>
+          <t>147876 (116567, 183489)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>45095 (37640, 53695)</t>
+          <t>42501 (35565, 50465)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>614 (408, 856)</t>
+          <t>669 (444, 928)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>544 (340, 783)</t>
+          <t>594 (370, 848)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>69 (43, 98)</t>
+          <t>74 (46, 105)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>54 (33, 78)</t>
+          <t>58 (36, 84)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>33 (29, 39)</t>
+          <t>35 (30, 41)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>306 (172, 488)</t>
+          <t>329 (183, 527)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>268 (133, 449)</t>
+          <t>288 (141, 484)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>33 (15, 59)</t>
+          <t>35 (16, 63)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>30 (17, 47)</t>
+          <t>32 (18, 50)</t>
         </is>
       </c>
     </row>
@@ -1690,57 +1690,57 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>142946 (112091, 178042)</t>
+          <t>155698 (122471, 193076)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48132 (39652, 57959)</t>
+          <t>45459 (37536, 54590)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>673 (446, 945)</t>
+          <t>733 (485, 1025)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>597 (371, 865)</t>
+          <t>650 (404, 938)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>75 (46, 106)</t>
+          <t>81 (50, 115)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>59 (36, 85)</t>
+          <t>64 (39, 92)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>37 (32, 44)</t>
+          <t>40 (34, 47)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>332 (188, 530)</t>
+          <t>358 (201, 574)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>289 (145, 485)</t>
+          <t>311 (155, 526)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>37 (17, 65)</t>
+          <t>40 (19, 71)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>33 (19, 52)</t>
+          <t>36 (20, 56)</t>
         </is>
       </c>
     </row>
@@ -1767,57 +1767,57 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>149224 (116921, 185523)</t>
+          <t>160293 (125909, 198588)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>51338 (41798, 62365)</t>
+          <t>48351 (39463, 58599)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>740 (489, 1049)</t>
+          <t>805 (531, 1137)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>657 (408, 962)</t>
+          <t>714 (443, 1041)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>82 (50, 116)</t>
+          <t>88 (55, 126)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>64 (40, 92)</t>
+          <t>70 (43, 100)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>42 (36, 49)</t>
+          <t>45 (39, 53)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>360 (206, 576)</t>
+          <t>389 (221, 625)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>313 (159, 527)</t>
+          <t>337 (169, 572)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>41 (20, 72)</t>
+          <t>45 (21, 78)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>37 (21, 57)</t>
+          <t>39 (22, 61)</t>
         </is>
       </c>
     </row>
@@ -1844,57 +1844,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>153013 (119936, 189764)</t>
+          <t>162438 (127617, 200716)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>54505 (43939, 66680)</t>
+          <t>51086 (41279, 62327)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>815 (536, 1166)</t>
+          <t>883 (581, 1258)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>724 (449, 1069)</t>
+          <t>784 (485, 1153)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>89 (55, 126)</t>
+          <t>96 (59, 137)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>69 (43, 101)</t>
+          <t>76 (46, 109)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>47 (41, 56)</t>
+          <t>51 (44, 59)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>391 (225, 627)</t>
+          <t>423 (241, 681)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>339 (173, 573)</t>
+          <t>366 (184, 623)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>46 (22, 79)</t>
+          <t>50 (24, 86)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>40 (23, 62)</t>
+          <t>43 (25, 67)</t>
         </is>
       </c>
     </row>
@@ -1921,57 +1921,57 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>154759 (121438, 191170)</t>
+          <t>162465 (127865, 199914)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>57449 (45940, 70639)</t>
+          <t>53544 (42892, 65690)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>895 (586, 1291)</t>
+          <t>964 (631, 1385)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>796 (491, 1185)</t>
+          <t>856 (527, 1270)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96 (59, 137)</t>
+          <t>104 (64, 149)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>75 (46, 110)</t>
+          <t>82 (50, 119)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>53 (45, 63)</t>
+          <t>57 (48, 67)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>426 (246, 683)</t>
+          <t>461 (264, 742)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>369 (189, 623)</t>
+          <t>398 (201, 678)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>51 (25, 86)</t>
+          <t>55 (27, 94)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>44 (25, 67)</t>
+          <t>48 (27, 73)</t>
         </is>
       </c>
     </row>
@@ -1998,57 +1998,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>154534 (121562, 189963)</t>
+          <t>160548 (126789, 196460)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>59989 (47652, 74076)</t>
+          <t>55599 (44244, 68514)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>976 (637, 1419)</t>
+          <t>1044 (681, 1512)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>869 (533, 1302)</t>
+          <t>927 (568, 1385)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>104 (64, 149)</t>
+          <t>113 (70, 162)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>82 (50, 119)</t>
+          <t>89 (55, 129)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>59 (50, 71)</t>
+          <t>63 (53, 76)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>465 (269, 744)</t>
+          <t>502 (287, 808)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>402 (206, 678)</t>
+          <t>433 (219, 737)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>56 (28, 94)</t>
+          <t>61 (30, 103)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>48 (28, 73)</t>
+          <t>52 (30, 79)</t>
         </is>
       </c>
     </row>
@@ -2075,57 +2075,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>151026 (119193, 184576)</t>
+          <t>155206 (123042, 188847)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>61938 (48954, 76733)</t>
+          <t>57116 (45205, 70595)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1055 (685, 1542)</t>
+          <t>1120 (726, 1630)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>938 (573, 1414)</t>
+          <t>992 (604, 1492)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>113 (69, 163)</t>
+          <t>122 (75, 176)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>88 (54, 130)</t>
+          <t>96 (59, 140)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>67 (56, 82)</t>
+          <t>71 (60, 87)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>507 (294, 811)</t>
+          <t>546 (312, 879)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>438 (225, 738)</t>
+          <t>471 (238, 800)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>61 (31, 103)</t>
+          <t>67 (34, 112)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>52 (30, 79)</t>
+          <t>56 (33, 86)</t>
         </is>
       </c>
     </row>
@@ -2152,57 +2152,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>145359 (115194, 176567)</t>
+          <t>147786 (117656, 178754)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>63095 (49668, 78352)</t>
+          <t>57880 (45623, 71699)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1127 (728, 1655)</t>
+          <t>1185 (765, 1734)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>999 (606, 1516)</t>
+          <t>1047 (634, 1584)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>122 (75, 177)</t>
+          <t>132 (81, 191)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>96 (59, 141)</t>
+          <t>103 (64, 152)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>75 (62, 93)</t>
+          <t>80 (66, 99)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>552 (320, 882)</t>
+          <t>593 (339, 954)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>477 (245, 803)</t>
+          <t>510 (258, 868)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>67 (34, 111)</t>
+          <t>73 (37, 122)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>56 (33, 85)</t>
+          <t>61 (36, 93)</t>
         </is>
       </c>
     </row>
@@ -2229,57 +2229,57 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>138995 (110596, 167772)</t>
+          <t>139886 (111773, 168381)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>63330 (49707, 78769)</t>
+          <t>57807 (45404, 71712)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1188 (764, 1752)</t>
+          <t>1238 (796, 1820)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1050 (632, 1601)</t>
+          <t>1089 (655, 1658)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>131 (80, 191)</t>
+          <t>141 (87, 206)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>103 (63, 153)</t>
+          <t>111 (68, 164)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>85 (69, 106)</t>
+          <t>91 (74, 113)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>598 (348, 957)</t>
+          <t>642 (368, 1033)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>517 (267, 871)</t>
+          <t>552 (280, 938)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>72 (38, 121)</t>
+          <t>79 (41, 132)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>60 (35, 92)</t>
+          <t>66 (39, 100)</t>
         </is>
       </c>
     </row>
@@ -2306,57 +2306,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>131816 (105313, 158243)</t>
+          <t>131451 (105288, 157453)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>62666 (49073, 78032)</t>
+          <t>56889 (44559, 70659)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1236 (791, 1828)</t>
+          <t>1277 (817, 1882)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1087 (651, 1664)</t>
+          <t>1117 (667, 1709)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>141 (86, 206)</t>
+          <t>151 (93, 220)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>111 (67, 165)</t>
+          <t>119 (73, 175)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>95 (76, 120)</t>
+          <t>102 (82, 128)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>647 (378, 1036)</t>
+          <t>691 (397, 1114)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>559 (291, 943)</t>
+          <t>593 (302, 1011)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>79 (41, 131)</t>
+          <t>86 (45, 143)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>65 (38, 99)</t>
+          <t>71 (42, 108)</t>
         </is>
       </c>
     </row>
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>124041 (99398, 148228)</t>
+          <t>122567 (98408, 146338)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>61176 (47823, 76226)</t>
+          <t>55249 (43144, 68660)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1268 (810, 1880)</t>
+          <t>1299 (829, 1919)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1110 (660, 1703)</t>
+          <t>1129 (669, 1735)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>150 (92, 221)</t>
+          <t>160 (98, 235)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>118 (72, 176)</t>
+          <t>126 (77, 187)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>106 (84, 136)</t>
+          <t>113 (90, 144)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>698 (410, 1117)</t>
+          <t>740 (428, 1195)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>601 (314, 1015)</t>
+          <t>635 (324, 1084)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>85 (45, 142)</t>
+          <t>94 (49, 154)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>70 (41, 107)</t>
+          <t>76 (45, 116)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>115831 (93070, 138018)</t>
+          <t>113548 (91267, 135277)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>59033 (46052, 73538)</t>
+          <t>52994 (41284, 65901)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1285 (818, 1903)</t>
+          <t>1304 (830, 1928)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1117 (659, 1717)</t>
+          <t>1125 (661, 1733)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>159 (97, 235)</t>
+          <t>168 (103, 248)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>125 (76, 187)</t>
+          <t>132 (81, 197)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>118 (92, 152)</t>
+          <t>125 (98, 160)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>748 (441, 1198)</t>
+          <t>789 (458, 1274)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>643 (338, 1086)</t>
+          <t>676 (346, 1154)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>92 (49, 153)</t>
+          <t>101 (54, 166)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>75 (44, 116)</t>
+          <t>82 (49, 125)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>107499 (86455, 127844)</t>
+          <t>104554 (84040, 124349)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>56368 (43881, 70199)</t>
+          <t>50328 (39081, 62590)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1286 (817, 1902)</t>
+          <t>1293 (821, 1911)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1109 (650, 1706)</t>
+          <t>1106 (645, 1708)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>167 (101, 248)</t>
+          <t>175 (107, 259)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>132 (79, 197)</t>
+          <t>138 (84, 206)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>130 (100, 169)</t>
+          <t>137 (106, 177)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>798 (472, 1274)</t>
+          <t>836 (488, 1348)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>685 (361, 1155)</t>
+          <t>715 (369, 1219)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>100 (54, 165)</t>
+          <t>108 (58, 178)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>81 (48, 125)</t>
+          <t>88 (52, 134)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2636 (1355, 4649)</t>
+          <t>2915 (1497, 5138)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2315 (1056, 4306)</t>
+          <t>2563 (1150, 4761)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>270 (126, 503)</t>
+          <t>296 (140, 545)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>209 (113, 357)</t>
+          <t>226 (123, 382)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2636 (1355, 4649)</t>
+          <t>2915 (1497, 5138)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2315 (1056, 4306)</t>
+          <t>2563 (1150, 4761)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>270 (126, 503)</t>
+          <t>296 (140, 545)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>209 (113, 357)</t>
+          <t>226 (123, 382)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2906 (1510, 5095)</t>
+          <t>3204 (1658, 5639)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2548 (1182, 4715)</t>
+          <t>2810 (1272, 5216)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>299 (139, 560)</t>
+          <t>330 (155, 613)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>232 (125, 396)</t>
+          <t>252 (137, 427)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2906 (1510, 5095)</t>
+          <t>3204 (1658, 5639)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2548 (1182, 4715)</t>
+          <t>2810 (1272, 5216)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>299 (139, 560)</t>
+          <t>330 (155, 613)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>232 (125, 396)</t>
+          <t>252 (137, 427)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3214 (1688, 5596)</t>
+          <t>3528 (1841, 6192)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2819 (1329, 5177)</t>
+          <t>3092 (1416, 5720)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>328 (152, 618)</t>
+          <t>366 (170, 682)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>256 (139, 437)</t>
+          <t>280 (152, 474)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3214 (1688, 5596)</t>
+          <t>3528 (1841, 6192)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2819 (1329, 5177)</t>
+          <t>3092 (1416, 5720)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>328 (152, 618)</t>
+          <t>366 (170, 682)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>256 (139, 437)</t>
+          <t>280 (152, 474)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3568 (1893, 6170)</t>
+          <t>3898 (2050, 6807)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3134 (1499, 5707)</t>
+          <t>3419 (1583, 6286)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>359 (166, 679)</t>
+          <t>402 (186, 754)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>281 (153, 479)</t>
+          <t>308 (167, 522)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3568 (1893, 6170)</t>
+          <t>3898 (2050, 6807)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3134 (1499, 5707)</t>
+          <t>3419 (1583, 6286)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>359 (166, 679)</t>
+          <t>402 (186, 754)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>281 (153, 479)</t>
+          <t>308 (167, 522)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3972 (2127, 6820)</t>
+          <t>4318 (2287, 7501)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3498 (1694, 6315)</t>
+          <t>3790 (1776, 6930)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>391 (181, 743)</t>
+          <t>439 (202, 829)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>309 (168, 525)</t>
+          <t>338 (184, 573)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3972 (2127, 6820)</t>
+          <t>4318 (2287, 7501)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3498 (1694, 6315)</t>
+          <t>3790 (1776, 6930)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>391 (181, 743)</t>
+          <t>439 (202, 829)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>309 (168, 525)</t>
+          <t>338 (184, 573)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4428 (2391, 7556)</t>
+          <t>4787 (2552, 8280)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3908 (1914, 7008)</t>
+          <t>4210 (1995, 7651)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>425 (197, 810)</t>
+          <t>478 (219, 907)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>339 (185, 573)</t>
+          <t>371 (202, 627)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4428 (2391, 7556)</t>
+          <t>4787 (2552, 8280)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3908 (1914, 7008)</t>
+          <t>4210 (1995, 7651)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>425 (197, 810)</t>
+          <t>478 (219, 907)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>339 (185, 573)</t>
+          <t>371 (202, 627)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4929 (2675, 8371)</t>
+          <t>5299 (2836, 9133)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4361 (2155, 7770)</t>
+          <t>4670 (2235, 8451)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>462 (215, 881)</t>
+          <t>520 (238, 988)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>372 (204, 626)</t>
+          <t>405 (221, 684)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4929 (2675, 8371)</t>
+          <t>5299 (2836, 9133)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4361 (2155, 7770)</t>
+          <t>4670 (2235, 8451)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>462 (215, 881)</t>
+          <t>520 (238, 988)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>372 (204, 626)</t>
+          <t>405 (221, 684)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5462 (2974, 9246)</t>
+          <t>5842 (3135, 10048)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4846 (2407, 8587)</t>
+          <t>5157 (2487, 9298)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>503 (234, 957)</t>
+          <t>563 (258, 1073)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>408 (224, 684)</t>
+          <t>443 (242, 746)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5462 (2974, 9246)</t>
+          <t>5842 (3135, 10048)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4846 (2407, 8587)</t>
+          <t>5157 (2487, 9298)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>503 (234, 957)</t>
+          <t>563 (258, 1073)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>408 (224, 684)</t>
+          <t>443 (242, 746)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6012 (3281, 10164)</t>
+          <t>6394 (3438, 11001)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5338 (2660, 9450)</t>
+          <t>5651 (2741, 10181)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>546 (255, 1038)</t>
+          <t>608 (278, 1162)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>448 (247, 747)</t>
+          <t>483 (264, 812)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6012 (3281, 10164)</t>
+          <t>6394 (3438, 11001)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5338 (2660, 9450)</t>
+          <t>5651 (2741, 10181)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>546 (255, 1038)</t>
+          <t>608 (278, 1162)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>448 (247, 747)</t>
+          <t>483 (264, 812)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6557 (3582, 11093)</t>
+          <t>6944 (3734, 11952)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5827 (2908, 10310)</t>
+          <t>6141 (2984, 11063)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>592 (276, 1124)</t>
+          <t>655 (300, 1255)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>490 (271, 816)</t>
+          <t>526 (288, 883)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6557 (3582, 11093)</t>
+          <t>6944 (3734, 11952)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5827 (2908, 10310)</t>
+          <t>6141 (2984, 11063)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>592 (276, 1124)</t>
+          <t>655 (300, 1255)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>490 (271, 816)</t>
+          <t>526 (288, 883)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7079 (3865, 11997)</t>
+          <t>7460 (4012, 12873)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6287 (3135, 11148)</t>
+          <t>6597 (3210, 11911)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>641 (299, 1215)</t>
+          <t>704 (322, 1351)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>536 (297, 889)</t>
+          <t>571 (313, 958)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>7079 (3865, 11997)</t>
+          <t>7460 (4012, 12873)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>6287 (3135, 11148)</t>
+          <t>6597 (3210, 11911)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>641 (299, 1215)</t>
+          <t>704 (322, 1351)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>536 (297, 889)</t>
+          <t>571 (313, 958)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7560 (4123, 12847)</t>
+          <t>7925 (4261, 13722)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6704 (3333, 11931)</t>
+          <t>7000 (3405, 12686)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>690 (321, 1309)</t>
+          <t>753 (344, 1448)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>584 (324, 966)</t>
+          <t>618 (340, 1036)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7560 (4123, 12847)</t>
+          <t>7925 (4261, 13722)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6704 (3333, 11931)</t>
+          <t>7000 (3405, 12686)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>690 (321, 1309)</t>
+          <t>753 (344, 1448)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>584 (324, 966)</t>
+          <t>618 (340, 1036)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7976 (4340, 13613)</t>
+          <t>8325 (4467, 14457)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7062 (3495, 12626)</t>
+          <t>7336 (3557, 13350)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>740 (343, 1404)</t>
+          <t>801 (364, 1544)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>632 (352, 1045)</t>
+          <t>665 (366, 1114)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>7976 (4340, 13613)</t>
+          <t>8325 (4467, 14457)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7062 (3495, 12626)</t>
+          <t>7336 (3557, 13350)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>740 (343, 1404)</t>
+          <t>801 (364, 1544)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>632 (352, 1045)</t>
+          <t>665 (366, 1114)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8317 (4513, 14263)</t>
+          <t>8634 (4627, 15059)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7342 (3612, 13209)</t>
+          <t>7586 (3670, 13891)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>788 (364, 1499)</t>
+          <t>847 (384, 1637)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>681 (379, 1124)</t>
+          <t>711 (392, 1192)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8317 (4513, 14263)</t>
+          <t>8634 (4627, 15059)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7342 (3612, 13209)</t>
+          <t>7586 (3670, 13891)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>788 (364, 1499)</t>
+          <t>847 (384, 1637)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>681 (379, 1124)</t>
+          <t>711 (392, 1192)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2172 (1136, 3692)</t>
+          <t>2328 (1216, 3956)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1924 (904, 3435)</t>
+          <t>2064 (963, 3683)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>204 (99, 374)</t>
+          <t>219 (105, 399)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>159 (86, 269)</t>
+          <t>171 (92, 288)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2172 (1136, 3692)</t>
+          <t>2328 (1216, 3956)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1924 (904, 3435)</t>
+          <t>2064 (963, 3683)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>204 (99, 374)</t>
+          <t>219 (105, 399)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>159 (86, 269)</t>
+          <t>171 (92, 288)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2420 (1276, 4099)</t>
+          <t>2598 (1371, 4401)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2144 (1017, 3808)</t>
+          <t>2302 (1087, 4096)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>229 (111, 420)</t>
+          <t>246 (118, 450)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>179 (97, 301)</t>
+          <t>192 (104, 323)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2420 (1276, 4099)</t>
+          <t>2598 (1371, 4401)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2144 (1017, 3808)</t>
+          <t>2302 (1087, 4096)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>229 (111, 420)</t>
+          <t>246 (118, 450)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>179 (97, 301)</t>
+          <t>192 (104, 323)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2700 (1433, 4554)</t>
+          <t>2901 (1543, 4899)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2393 (1146, 4230)</t>
+          <t>2571 (1228, 4558)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>255 (123, 470)</t>
+          <t>274 (131, 503)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>199 (109, 336)</t>
+          <t>215 (117, 362)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2700 (1433, 4554)</t>
+          <t>2901 (1543, 4899)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2393 (1146, 4230)</t>
+          <t>2571 (1228, 4558)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>255 (123, 470)</t>
+          <t>274 (131, 503)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>199 (109, 336)</t>
+          <t>215 (117, 362)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3013 (1612, 5067)</t>
+          <t>3242 (1739, 5459)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2676 (1294, 4707)</t>
+          <t>2875 (1388, 5078)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>283 (136, 522)</t>
+          <t>304 (145, 560)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>222 (121, 374)</t>
+          <t>240 (130, 403)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3013 (1612, 5067)</t>
+          <t>3242 (1739, 5459)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2676 (1294, 4707)</t>
+          <t>2875 (1388, 5078)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>283 (136, 522)</t>
+          <t>304 (145, 560)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>222 (121, 374)</t>
+          <t>240 (130, 403)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3365 (1812, 5647)</t>
+          <t>3621 (1955, 6084)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2992 (1461, 5248)</t>
+          <t>3214 (1566, 5660)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>312 (149, 578)</t>
+          <t>336 (159, 620)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>246 (135, 414)</t>
+          <t>266 (145, 447)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3365 (1812, 5647)</t>
+          <t>3621 (1955, 6084)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2992 (1461, 5248)</t>
+          <t>3214 (1566, 5660)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>312 (149, 578)</t>
+          <t>336 (159, 620)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>246 (135, 414)</t>
+          <t>266 (145, 447)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3756 (2032, 6294)</t>
+          <t>4037 (2188, 6778)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3344 (1644, 5853)</t>
+          <t>3587 (1759, 6308)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>343 (164, 637)</t>
+          <t>370 (176, 684)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>272 (150, 458)</t>
+          <t>295 (161, 494)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3756 (2032, 6294)</t>
+          <t>4037 (2188, 6778)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3344 (1644, 5853)</t>
+          <t>3587 (1759, 6308)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>343 (164, 637)</t>
+          <t>370 (176, 684)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>272 (150, 458)</t>
+          <t>295 (161, 494)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4183 (2268, 7009)</t>
+          <t>4481 (2435, 7530)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3728 (1840, 6520)</t>
+          <t>3986 (1963, 7010)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>377 (180, 701)</t>
+          <t>406 (193, 753)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>301 (166, 506)</t>
+          <t>327 (179, 546)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4183 (2268, 7009)</t>
+          <t>4481 (2435, 7530)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>3728 (1840, 6520)</t>
+          <t>3986 (1963, 7010)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>377 (180, 701)</t>
+          <t>406 (193, 753)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>301 (166, 506)</t>
+          <t>327 (179, 546)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4634 (2516, 7779)</t>
+          <t>4944 (2688, 8329)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4133 (2045, 7244)</t>
+          <t>4401 (2171, 7756)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>413 (197, 770)</t>
+          <t>445 (211, 826)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>332 (184, 558)</t>
+          <t>360 (198, 602)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4634 (2516, 7779)</t>
+          <t>4944 (2688, 8329)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4133 (2045, 7244)</t>
+          <t>4401 (2171, 7756)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>413 (197, 770)</t>
+          <t>445 (211, 826)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>332 (184, 558)</t>
+          <t>360 (198, 602)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5099 (2768, 8589)</t>
+          <t>5416 (2941, 9155)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4547 (2253, 7999)</t>
+          <t>4819 (2376, 8523)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>452 (215, 843)</t>
+          <t>485 (230, 904)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>366 (203, 615)</t>
+          <t>397 (218, 662)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>5099 (2768, 8589)</t>
+          <t>5416 (2941, 9155)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4547 (2253, 7999)</t>
+          <t>4819 (2376, 8523)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>452 (215, 843)</t>
+          <t>485 (230, 904)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>366 (203, 615)</t>
+          <t>397 (218, 662)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5568 (3017, 9420)</t>
+          <t>5880 (3185, 9990)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4960 (2455, 8773)</t>
+          <t>5226 (2571, 9294)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>494 (235, 921)</t>
+          <t>528 (250, 986)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>403 (223, 676)</t>
+          <t>436 (240, 726)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5568 (3017, 9420)</t>
+          <t>5880 (3185, 9990)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>4960 (2455, 8773)</t>
+          <t>5226 (2571, 9294)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>494 (235, 921)</t>
+          <t>528 (250, 986)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>403 (223, 676)</t>
+          <t>436 (240, 726)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6017 (3254, 10245)</t>
+          <t>6318 (3411, 10805)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5357 (2642, 9538)</t>
+          <t>5609 (2748, 10044)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>537 (255, 1004)</t>
+          <t>573 (270, 1072)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>442 (245, 742)</t>
+          <t>476 (263, 794)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>6017 (3254, 10245)</t>
+          <t>6318 (3411, 10805)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>5357 (2642, 9538)</t>
+          <t>5609 (2748, 10044)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>537 (255, 1004)</t>
+          <t>573 (270, 1072)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>442 (245, 742)</t>
+          <t>476 (263, 794)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6444 (3469, 11036)</t>
+          <t>6720 (3611, 11570)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5726 (2808, 10265)</t>
+          <t>5955 (2899, 10740)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>581 (275, 1091)</t>
+          <t>618 (291, 1159)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>484 (268, 812)</t>
+          <t>518 (286, 865)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>6444 (3469, 11036)</t>
+          <t>6720 (3611, 11570)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5726 (2808, 10265)</t>
+          <t>5955 (2899, 10740)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>581 (275, 1091)</t>
+          <t>618 (291, 1159)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>484 (268, 812)</t>
+          <t>518 (286, 865)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6825 (3657, 11775)</t>
+          <t>7072 (3780, 12259)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6046 (2945, 10930)</t>
+          <t>6250 (3019, 11363)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>627 (295, 1179)</t>
+          <t>662 (310, 1248)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>526 (291, 884)</t>
+          <t>561 (309, 937)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>6825 (3657, 11775)</t>
+          <t>7072 (3780, 12259)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>6046 (2945, 10930)</t>
+          <t>6250 (3019, 11363)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>627 (295, 1179)</t>
+          <t>662 (310, 1248)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>526 (291, 884)</t>
+          <t>561 (309, 937)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7151 (3811, 12422)</t>
+          <t>7360 (3908, 12847)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6311 (3049, 11519)</t>
+          <t>6481 (3101, 11893)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>671 (314, 1268)</t>
+          <t>705 (329, 1335)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>568 (314, 957)</t>
+          <t>603 (332, 1008)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>7151 (3811, 12422)</t>
+          <t>7360 (3908, 12847)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>6311 (3049, 11519)</t>
+          <t>6481 (3101, 11893)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>671 (314, 1268)</t>
+          <t>705 (329, 1335)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>568 (314, 957)</t>
+          <t>603 (332, 1008)</t>
         </is>
       </c>
     </row>
